--- a/results/I3_N5_M2_T30_C150_DepCentral_s4_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s4_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>856.1618841340282</v>
+        <v>1588.81854618301</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.42188413403032</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.79395499765874</v>
+        <v>8.585560950698017</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.79395499765874</v>
+        <v>4.66841631978657</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>252.3399999999978</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>580.4</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,23 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -755,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -918,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>22.74451170626076</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>13.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.948765943552132</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.384048268047589</v>
+        <v>14.77463816779881</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.46902814888773</v>
+        <v>20.27548355737303</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.8160670982627</v>
+        <v>25.56053727432651</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6146379281073</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,7 +1001,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -1026,7 +1015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>6</v>
@@ -1040,7 +1029,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>6</v>
@@ -1054,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>6</v>
@@ -1068,7 +1057,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -1082,15 +1071,113 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -1204,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000007</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11">
@@ -1237,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000000007</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
@@ -1248,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>156.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1259,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>162.55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1270,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>163.885</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1281,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>164.005</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1379,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>153.105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1303,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000073</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1314,7 +1401,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000073</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1336,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1347,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000073</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1358,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>94.7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1369,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>95.46000000000001</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -1380,7 +1467,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>96.13500000000001</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -1391,7 +1478,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>97.91500000000001</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1402,7 +1489,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>90.295</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -1413,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>166.4299999999998</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -1424,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>167.6399999999998</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -1435,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>169.0099999999998</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
@@ -1446,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>166.7899999999998</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
@@ -1457,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>156.1549999999998</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
@@ -1468,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>156.6</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -1479,7 +1566,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>162.55</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -1490,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>163.885</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1588,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>164.005</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -1512,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>153.105</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -1523,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>166.4299999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1534,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>167.6399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1545,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>169.0099999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1556,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>166.7899999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1567,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>156.1549999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.6</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -1625,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12.55</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
@@ -1636,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.88499999999999</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1647,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>14.005</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -1658,7 +1745,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.10499999999999</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
@@ -1669,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>16.42999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1680,7 +1767,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.63999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1691,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0099999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1702,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7899999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1713,7 +1800,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.154999999999773</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1760,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1771,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1782,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1793,7 +1880,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1804,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1815,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1826,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1837,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1935,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1859,7 +1946,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1870,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1881,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1892,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1903,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1914,7 +2001,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1925,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1936,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1958,7 +2045,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1969,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2038,7 +2125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2065,7 +2152,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2076,7 +2163,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2087,7 +2174,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2098,7 +2185,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2109,7 +2196,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2120,7 +2207,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2131,7 +2218,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2142,10 +2229,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2156,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2167,9 +2254,42 @@
         <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
